--- a/matrix/reviewed/android/connected device/connected_device.xlsx
+++ b/matrix/reviewed/android/connected device/connected_device.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D22926-047C-4FDA-AC09-47DEB2F8AFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E1FF2B-7578-4F0F-9F55-3BDA5DC46763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,48 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="11">
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>T001</t>
-  </si>
-  <si>
-    <t>T002</t>
-  </si>
-  <si>
-    <t>T003</t>
-  </si>
-  <si>
-    <t>T004</t>
-  </si>
-  <si>
-    <t>T005</t>
-  </si>
-  <si>
-    <t>T006</t>
-  </si>
-  <si>
-    <t>T007</t>
-  </si>
-  <si>
-    <t>T008</t>
-  </si>
-  <si>
-    <t>T009</t>
-  </si>
-  <si>
-    <t>T0010</t>
-  </si>
-  <si>
-    <t>T0011</t>
-  </si>
-  <si>
-    <t>T0012</t>
-  </si>
-  <si>
-    <t>T0013</t>
   </si>
   <si>
     <t>T0014</t>
@@ -89,6 +50,9 @@
   </si>
   <si>
     <t>T0022</t>
+  </si>
+  <si>
+    <t>28/4/2024</t>
   </si>
 </sst>
 </file>
@@ -261,11 +225,107 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
@@ -1834,14 +1894,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1048" name="Check Box 24" hidden="1">
@@ -1850,7 +1915,1495 @@
                   <a14:compatExt spid="_x0000_s1048"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B13F3FC-4490-42A4-8821-7EC5BDDD9C78}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1049" name="Check Box 25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C95601B-A262-4155-93F4-7FFE27C50596}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1050"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E814CAF2-E18F-4A00-8C64-9EEA2D7017B9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1051" name="Check Box 27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1051"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AD3CEFB-56D7-45D7-B5B9-79C130047B48}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1052" name="Check Box 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1052"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42F9C76D-B29A-4EC0-9048-1D498DFC26F2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1053" name="Check Box 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1053"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67FCF1D1-3CB2-4F78-9B0E-FBDF0C952DED}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1054" name="Check Box 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1054"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B6483F9-F284-4E09-9A43-285D615F81BE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1055" name="Check Box 31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1055"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEE3F175-7E95-4287-BEF1-5658581F793F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1056" name="Check Box 32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1056"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C740D8F-7E8A-4E04-A108-4CBE62AEB912}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1057" name="Check Box 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1057"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EBD9FC4-AE68-4A6D-B19B-91A648426C45}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1058" name="Check Box 34" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1058"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F1471F-CDC1-4A66-8923-7DCA7F74FB54}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1059" name="Check Box 35" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1059"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81C7F0F7-EB12-46FB-9A1A-318FB2C7D41C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1060"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DF650A6-7906-4763-9515-5C6ED53A76E3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1061" name="Check Box 37" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1061"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F187EC-0A12-4CAB-99DC-8E4E6E275687}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1062"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{708CC674-1F01-4B7E-904D-EEA7E388AA50}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1063"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AF3BE9D-E478-4A5D-90C5-D05B6D998129}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1064" name="Check Box 40" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1064"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCFDF140-DD6B-4D3A-8348-3DA31861DE25}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1065" name="Check Box 41" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1065"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4FAE8C0-E086-4EED-B922-4A48C415BE42}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1066" name="Check Box 42" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1066"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF33069-205B-445F-BAFA-2FF72AA00E41}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1067" name="Check Box 43" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1067"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{383F77EB-A7B0-4018-88A4-4E7A2EB53FBC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1068" name="Check Box 44" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1068"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E580F80-5C79-4FB0-9434-541947F6133B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1069" name="Check Box 45" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1069"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00D01E48-2673-4938-893F-351C836418A3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1070" name="Check Box 46" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1070"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2CA67F7-995B-4BF3-810C-5AFACFA96E34}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1071" name="Check Box 47" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1071"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118EB358-ADAB-4982-B4C4-94FCB8D578E7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1072" name="Check Box 48" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1072"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67E370C-F00F-4F0C-A8B4-2640FC7F81F6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2160,10 +3713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O5"/>
+  <dimension ref="B1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2173,44 +3726,44 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>7</v>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>8</v>
+      <c r="J2" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>9</v>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>10</v>
+      <c r="L2" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>11</v>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>12</v>
+      <c r="N2" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>13</v>
+      <c r="O2" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2233,31 +3786,31 @@
     </row>
     <row r="4" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
@@ -2270,6 +3823,109 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
+    </row>
+    <row r="7" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2806,6 +4462,534 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1049" r:id="rId27" name="Check Box 25">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1050" r:id="rId28" name="Check Box 26">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1051" r:id="rId29" name="Check Box 27">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1052" r:id="rId30" name="Check Box 28">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1053" r:id="rId31" name="Check Box 29">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1054" r:id="rId32" name="Check Box 30">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1055" r:id="rId33" name="Check Box 31">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1056" r:id="rId34" name="Check Box 32">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1057" r:id="rId35" name="Check Box 33">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1058" r:id="rId36" name="Check Box 34">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1059" r:id="rId37" name="Check Box 35">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1060" r:id="rId38" name="Check Box 36">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1061" r:id="rId39" name="Check Box 37">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1062" r:id="rId40" name="Check Box 38">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1063" r:id="rId41" name="Check Box 39">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1064" r:id="rId42" name="Check Box 40">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>45720</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1065" r:id="rId43" name="Check Box 41">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>45720</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1066" r:id="rId44" name="Check Box 42">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>45720</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1067" r:id="rId45" name="Check Box 43">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>45720</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1068" r:id="rId46" name="Check Box 44">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>45720</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1069" r:id="rId47" name="Check Box 45">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>45720</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1070" r:id="rId48" name="Check Box 46">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>45720</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1071" r:id="rId49" name="Check Box 47">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>45720</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1072" r:id="rId50" name="Check Box 48">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>45720</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/matrix/reviewed/android/connected device/connected_device.xlsx
+++ b/matrix/reviewed/android/connected device/connected_device.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E1FF2B-7578-4F0F-9F55-3BDA5DC46763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9164F7C0-DCFA-4254-B8DB-2FC8BD832260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -53,6 +53,45 @@
   </si>
   <si>
     <t>28/4/2024</t>
+  </si>
+  <si>
+    <t>T001</t>
+  </si>
+  <si>
+    <t>T002</t>
+  </si>
+  <si>
+    <t>T003</t>
+  </si>
+  <si>
+    <t>T004</t>
+  </si>
+  <si>
+    <t>T005</t>
+  </si>
+  <si>
+    <t>T006</t>
+  </si>
+  <si>
+    <t>T007</t>
+  </si>
+  <si>
+    <t>T008</t>
+  </si>
+  <si>
+    <t>T009</t>
+  </si>
+  <si>
+    <t>T0010</t>
+  </si>
+  <si>
+    <t>T0011</t>
+  </si>
+  <si>
+    <t>T0012</t>
+  </si>
+  <si>
+    <t>T0013</t>
   </si>
 </sst>
 </file>
@@ -1961,14 +2000,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1049" name="Check Box 25" hidden="1">
@@ -1977,7 +2021,7 @@
                   <a14:compatExt spid="_x0000_s1049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C95601B-A262-4155-93F4-7FFE27C50596}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2017,20 +2061,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
@@ -2039,7 +2088,7 @@
                   <a14:compatExt spid="_x0000_s1050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E814CAF2-E18F-4A00-8C64-9EEA2D7017B9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2079,20 +2128,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1051" name="Check Box 27" hidden="1">
@@ -2101,7 +2155,7 @@
                   <a14:compatExt spid="_x0000_s1051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AD3CEFB-56D7-45D7-B5B9-79C130047B48}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2141,20 +2195,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1052" name="Check Box 28" hidden="1">
@@ -2163,7 +2222,7 @@
                   <a14:compatExt spid="_x0000_s1052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42F9C76D-B29A-4EC0-9048-1D498DFC26F2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2203,20 +2262,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1053" name="Check Box 29" hidden="1">
@@ -2225,7 +2289,7 @@
                   <a14:compatExt spid="_x0000_s1053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67FCF1D1-3CB2-4F78-9B0E-FBDF0C952DED}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2265,20 +2329,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1054" name="Check Box 30" hidden="1">
@@ -2287,7 +2356,7 @@
                   <a14:compatExt spid="_x0000_s1054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B6483F9-F284-4E09-9A43-285D615F81BE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2327,20 +2396,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1055" name="Check Box 31" hidden="1">
@@ -2349,7 +2423,7 @@
                   <a14:compatExt spid="_x0000_s1055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEE3F175-7E95-4287-BEF1-5658581F793F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2389,20 +2463,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1056" name="Check Box 32" hidden="1">
@@ -2411,7 +2490,7 @@
                   <a14:compatExt spid="_x0000_s1056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C740D8F-7E8A-4E04-A108-4CBE62AEB912}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2451,20 +2530,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1057" name="Check Box 33" hidden="1">
@@ -2473,7 +2557,7 @@
                   <a14:compatExt spid="_x0000_s1057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EBD9FC4-AE68-4A6D-B19B-91A648426C45}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2513,20 +2597,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1058" name="Check Box 34" hidden="1">
@@ -2535,7 +2624,7 @@
                   <a14:compatExt spid="_x0000_s1058"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F1471F-CDC1-4A66-8923-7DCA7F74FB54}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2575,20 +2664,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>12</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1059" name="Check Box 35" hidden="1">
@@ -2597,7 +2691,7 @@
                   <a14:compatExt spid="_x0000_s1059"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81C7F0F7-EB12-46FB-9A1A-318FB2C7D41C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2637,20 +2731,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>13</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
@@ -2659,7 +2758,7 @@
                   <a14:compatExt spid="_x0000_s1060"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DF650A6-7906-4763-9515-5C6ED53A76E3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2699,20 +2798,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>12</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1061" name="Check Box 37" hidden="1">
@@ -2721,7 +2825,7 @@
                   <a14:compatExt spid="_x0000_s1061"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F187EC-0A12-4CAB-99DC-8E4E6E275687}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2761,20 +2865,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>13</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
@@ -2783,7 +2892,7 @@
                   <a14:compatExt spid="_x0000_s1062"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{708CC674-1F01-4B7E-904D-EEA7E388AA50}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2823,20 +2932,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
@@ -2845,7 +2959,7 @@
                   <a14:compatExt spid="_x0000_s1063"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AF3BE9D-E478-4A5D-90C5-D05B6D998129}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2885,20 +2999,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1064" name="Check Box 40" hidden="1">
@@ -2907,7 +3026,7 @@
                   <a14:compatExt spid="_x0000_s1064"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCFDF140-DD6B-4D3A-8348-3DA31861DE25}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2947,20 +3066,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1065" name="Check Box 41" hidden="1">
@@ -2969,7 +3093,7 @@
                   <a14:compatExt spid="_x0000_s1065"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4FAE8C0-E086-4EED-B922-4A48C415BE42}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3009,20 +3133,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1066" name="Check Box 42" hidden="1">
@@ -3031,7 +3160,7 @@
                   <a14:compatExt spid="_x0000_s1066"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF33069-205B-445F-BAFA-2FF72AA00E41}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3071,20 +3200,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1067" name="Check Box 43" hidden="1">
@@ -3093,7 +3227,7 @@
                   <a14:compatExt spid="_x0000_s1067"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{383F77EB-A7B0-4018-88A4-4E7A2EB53FBC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3133,20 +3267,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1068" name="Check Box 44" hidden="1">
@@ -3155,7 +3294,7 @@
                   <a14:compatExt spid="_x0000_s1068"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E580F80-5C79-4FB0-9434-541947F6133B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3195,20 +3334,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1069" name="Check Box 45" hidden="1">
@@ -3217,7 +3361,7 @@
                   <a14:compatExt spid="_x0000_s1069"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00D01E48-2673-4938-893F-351C836418A3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3257,20 +3401,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1070" name="Check Box 46" hidden="1">
@@ -3279,7 +3428,7 @@
                   <a14:compatExt spid="_x0000_s1070"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2CA67F7-995B-4BF3-810C-5AFACFA96E34}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3319,20 +3468,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1071" name="Check Box 47" hidden="1">
@@ -3341,7 +3495,7 @@
                   <a14:compatExt spid="_x0000_s1071"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118EB358-ADAB-4982-B4C4-94FCB8D578E7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3381,20 +3535,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1072" name="Check Box 48" hidden="1">
@@ -3403,7 +3562,7 @@
                   <a14:compatExt spid="_x0000_s1072"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67E370C-F00F-4F0C-A8B4-2640FC7F81F6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3443,7 +3602,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -3716,7 +3875,7 @@
   <dimension ref="B1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3727,43 +3886,43 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3830,43 +3989,43 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
